--- a/源码/Project/Kezhi.Web/Content/TemplateFile/上海科致工作日志模板.xlsx
+++ b/源码/Project/Kezhi.Web/Content/TemplateFile/上海科致工作日志模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\上海科致OA管理\源码\Project\Kezhi.Web\Content\TemplateFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\上海科致OA管理\kezhiOA\源码\Project\Kezhi.Web\Content\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>上下班时间</t>
   </si>
@@ -251,6 +251,15 @@
   <si>
     <t>工作日志模板</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍编号</t>
+  </si>
+  <si>
+    <t>东方公寓-1</t>
+  </si>
+  <si>
+    <t>家</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,20 +644,23 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1018,24 +1030,25 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" customHeight="1">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" hidden="1">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" hidden="1">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -1046,7 +1059,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="27.75">
+    <row r="3" spans="1:10" ht="27.75">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="I3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="27">
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27">
       <c r="A4" s="5">
         <v>43586</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="13">
@@ -1101,8 +1117,11 @@
       <c r="I4" s="10">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="27">
+      <c r="J4" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27">
       <c r="A5" s="5">
         <v>43587</v>
       </c>
@@ -1121,332 +1140,364 @@
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="26">
         <v>0</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+      <c r="J5" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="15">
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="11"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="17"/>
       <c r="E19" s="9"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="17"/>
       <c r="E20" s="9"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="15">
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="15">
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="14"/>
       <c r="E28" s="9"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="15">
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14"/>
       <c r="E29" s="9"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="15">
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="15">
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="10"/>
+      <c r="J34" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
